--- a/Reports/src/Critical_Path.xlsx
+++ b/Reports/src/Critical_Path.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t xml:space="preserve">Activity ID</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">Disease Parse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -215,11 +218,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,16 +242,35 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76FF03"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,8 +307,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,8 +320,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -306,6 +353,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFEB3B"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF76FF03"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -314,10 +421,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="H39:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,22 +440,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -356,22 +463,22 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -380,33 +487,33 @@
       <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -415,33 +522,33 @@
       <c r="J3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -450,30 +557,31 @@
       <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -482,30 +590,31 @@
       <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -514,658 +623,696 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F42" s="0" t="n">
-        <f aca="false">SUM(F2:F41)</f>
-        <v>76</v>
+        <f aca="false">-SUM(F32,F28,F23:F24,F8:F11)</f>
+        <v>-11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="0" t="n">
-        <f aca="false">F42/5</f>
-        <v>15.2</v>
+      <c r="F43" s="1" t="n">
+        <f aca="false">SUM(F2:F42)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">F43/5</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
